--- a/xlsx/joursystem_nya_vs_gamla.xlsx
+++ b/xlsx/joursystem_nya_vs_gamla.xlsx
@@ -61,7 +61,7 @@
     <t>Ulj</t>
   </si>
   <si>
-    <t>Genomsnitt antal remisser i nya systemet (fr.o.m 2019-02-11) vs gamla</t>
+    <t>Genomsnitt antal remisser i nya systemet fr.o.m 2019-02-11 (= 1) vs gamla (= 0)</t>
   </si>
 </sst>
 </file>
